--- a/01_Input/00_CO Validation/Ethiopia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Ethiopia - Energy Projects.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{13BC68ED-377D-AF46-9517-24CBBB382626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{512E1F3E-0E71-454D-B562-65D9FE3A5664}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{13BC68ED-377D-AF46-9517-24CBBB382626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D03271C7-0400-4D25-A19E-A384E022ED37}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" r:id="rId1"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId2"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="163">
   <si>
     <t>Project ID</t>
   </si>
@@ -66,27 +70,70 @@
     <t>Donors</t>
   </si>
   <si>
+    <t>Gender (% female)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trilateral Cooperation on Biogas and Solar - Transitioning to Sustainable Energy Uses in public and private institutions including in the Agro-Industry </t>
   </si>
   <si>
     <t>http://open.undp.org/projects/00120660</t>
   </si>
   <si>
-    <t>Total：2,042,396 USD
-(1) MOFCOM: 1,000,000
+    <t xml:space="preserve">2042396
+</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of green technologies introduced at national level
+4 new large scale institutional biogas and solar systems for demonstration </t>
+  </si>
+  <si>
+    <t>(1) MOFCOM: 1,000,000
 (2) Co-financing: 1,042,396</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Number of green technologies introduced at national level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No/only few number of functional large scale institutional biogas and solar plants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 new large scale institutional biogas and solar systems for demonstration </t>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>The supported 1 MW will be installed in hotels as the objective is to increase private sector investment in PV systems.  The ongoing Egypt PV project has already addressed the Hotels in Sharm ahead of the COP27 and we have worked in more than 10 hotels which have invested in more than 3 MWs. Green Sharm Project will further promote the technology in hotels aiming to have all hotels in the city install PV systems. 
+For instance one of the hotels in Sharm  keep expanding the solar power station and aims to reach 70% of total electricity consumption to be from solar energy.  With the improvement in electricity storage technology, the hotel should be able to dis-connect soonest from the grid. 
+Meanwhile, the guests and hotel staff are watching and replicating in their homes.  This is exactly how it went with the market transformation to energy efficient lighting  (LED technology) in Egypt.  I did not mention about the energy efficiency project because it has ended in 2018 but it has induced a reduction of 10-15% to total electricity consumption in the country.   
+Based on the above, it is difficult to estimated the number of beneficiaries from the energy transition actions and I would appreciate your suggestions in this respect.  As mentioned earlier, the moonshot indicators are not tuned to capture achievements in energy transition.  I will be glad to contribute to a brainstorming session on if you like to discuss developing indicators to describe energy transition</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
   </si>
   <si>
     <t>Capacity Training</t>
@@ -97,44 +144,11 @@
 %of positive evaluation of training</t>
   </si>
   <si>
-    <t>Zero</t>
-  </si>
-  <si>
     <t>At least 1 operation, maintenance and safety manual delivered per site
 30 participants trained on system operation and maintenance
 80% of positive evaluation of the training</t>
   </si>
   <si>
-    <t>No of training course curriculum material developed for system design and optimization
-No of training course for system design and optimization
-No of people trained on design and optimization
-%of positive evaluation of training</t>
-  </si>
-  <si>
-    <t>1 Training course curriculum material
-3-5 hands-on training course for design and optimization
-30 participants trained on system design training 
-80% of positive evaluation of the training</t>
-  </si>
-  <si>
-    <t>No of RE Training curricula added on SSC centre website as E-Learning course</t>
-  </si>
-  <si>
-    <t>At least 1 E-Learning course on SSC Center website
-30 of views and subscription to online courses</t>
-  </si>
-  <si>
-    <t>No of Award Scheme designed
-No of winners awarded</t>
-  </si>
-  <si>
-    <t>1 Award Scheme developed
-At least 30 winners awarded for “best China-Africa cooperation”, “Greenest Universities”, “Energy Efficiency”, “Reduction of GHG”, “Innovative RET uses”, etc.</t>
-  </si>
-  <si>
-    <t>Beneficiaries include, but are not limited to, public institutions, private associations, research organizations, and are not categorized under any of the options.</t>
-  </si>
-  <si>
     <t>No of reports produced and presented to best practices workshop
 No of participants to best practices workshop</t>
   </si>
@@ -143,25 +157,7 @@
 50 participants attend best practices workshop</t>
   </si>
   <si>
-    <t>No of Ethiopia participants to business platform in China
-% of stakeholders  satisfied with business match-making platform and trade fair</t>
-  </si>
-  <si>
-    <t>At least 10 stakeholders from Ethiopia (private companies, biogas association, government counterparts) invited to business match-making platform
-80% of participants satisfied with business match-making platform and trade fair</t>
-  </si>
-  <si>
-    <t>It can be placed in any of the categories under Market Development.</t>
-  </si>
-  <si>
-    <t>No of online catalogue of suppliers/appliances developed and regularly updated</t>
-  </si>
-  <si>
-    <t>1 online catalogue of suppliers/appliances developed and regularly updated
-70% of users satisfied with online catalogue service</t>
-  </si>
-  <si>
-    <t>It does not fall into any of the categories</t>
+    <t>Non-VF</t>
   </si>
   <si>
     <t xml:space="preserve"> Promoting Sustainable Rural Energy Technologies (RETs) for Household and Productive Uses</t>
@@ -170,24 +166,28 @@
     <t>PIMS+ https://co.pims.undp.org/project/view?id=5200</t>
   </si>
   <si>
-    <t>Total：73,137,680 USD
+    <t>Energy Saved (MJ)</t>
+  </si>
+  <si>
+    <t>Lifetime energy saved</t>
+  </si>
+  <si>
+    <t>35.5 million mega-Joules of energy saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 (1) GEF: 4,480,500.00
 (2) Co-financing: 69,045,899</t>
   </si>
   <si>
-    <t>Lifetime energy saved</t>
-  </si>
-  <si>
-    <t>35.5 million mega-Joules of energy saved</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>Tonnes of CO2 equivalent avoided.</t>
   </si>
   <si>
-    <t>The use of over 15 million inefficient cook-stoves and over 15 million kerosene lamps leads to over 35 Mt CO2e annually</t>
-  </si>
-  <si>
-    <t>The total direct incremental GHG emission reductions from solar products will 0.04 Mt of CO2e over their lifetime of 3 years; the additional ICS will avoid 2 Mt of CO2e over their lifetime of 3 years.</t>
+    <t>The use of over 15 million inefficient cook-stoves and over 15 million kerosene lamps leads to over 35 Mt CO2e annually
+The total direct incremental GHG emission reductions from solar products will 0.04 Mt of CO2e over their lifetime of 3 years; the additional ICS will avoid 2 Mt of CO2e over their lifetime of 3 years.</t>
   </si>
   <si>
     <t>Electricity Access</t>
@@ -196,7 +196,10 @@
     <t>Number of households benefiting from project-supported access to RETs.</t>
   </si>
   <si>
-    <t>800,000 households are direct beneficiaries from improved access to affordable RETs.</t>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>800000 HH</t>
   </si>
   <si>
     <t>Policy or Regulatory Framework</t>
@@ -217,22 +220,17 @@
     <t>Over 500 individual stakeholders have been trained in implementation and adherence with the new standards and regulations.</t>
   </si>
   <si>
+    <t>Clean Cooking</t>
+  </si>
+  <si>
     <t>Type, item price and estimated efficiency of technology sold directly at roadshows</t>
   </si>
   <si>
     <t>Lack of public awareness in rural communities about the benefits of improved energy technologies for lighting and cooking.</t>
   </si>
   <si>
-    <t>300,000 RET items sold directly at roadshows</t>
-  </si>
-  <si>
-    <t>It can be classified in any category under Productive Use of Energy or the category of Clean Cooking.</t>
-  </si>
-  <si>
-    <t>Number  of appearances of promotions in media.</t>
-  </si>
-  <si>
-    <t>At least 1000 appearances of promotions in media.</t>
+    <t xml:space="preserve">It can be classified in any category under Productive Use of Energy or the category of Clean Cooking.
+</t>
   </si>
   <si>
     <t>Small Enterprises</t>
@@ -248,6 +246,9 @@
 500 RET enterprises applying for business incubation services.</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>Volume of investment mobilised by FSPs participating in the project.</t>
   </si>
   <si>
@@ -273,9 +274,8 @@
     <t>PIMS+ https://co.pims.undp.org/project/view?id=6338</t>
   </si>
   <si>
-    <t>Total：16,664,577 USD
-(1) GEF: 2,890,826
-(2) Co-financing: 13,773,751</t>
+    <t xml:space="preserve">16664577
+</t>
   </si>
   <si>
     <t xml:space="preserve">Number of direct beneficiaries benefitting from energy access via minigrids, disaggregated by gender and customer segment (residential, social, commercial/productive use), as co-benefit of GEF investment </t>
@@ -291,7 +291,8 @@
 312 connections (commercial/PUE))</t>
   </si>
   <si>
-    <t>Energy (MW added)</t>
+    <t>(1) GEF: 2,890,826
+(2) Co-financing: 13,773,751</t>
   </si>
   <si>
     <t>Increase in installed solar PV capacity (MW) and battery storage (MWh)</t>
@@ -301,6 +302,9 @@
 1.523 MWh (storage)</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of direct [and indirect] primary jobs created in the MG sector, disaggregated by gender, for mini-grid development, operation and productive use. </t>
   </si>
   <si>
@@ -315,12 +319,6 @@
 (2) 4,905,000 metric tons of CO2e (indirect) </t>
   </si>
   <si>
-    <t>A minigrid delivery model to enable minigrid development is endorsed/adopted by the national government through a consultative process involving key stakeholders (e.g. relevant ministries, local authorities, rural populations, private sector, media, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least one cooperative minigrid delivery model is identified and endorsed by the government through the work of the multi-stakeholder platform and dialogue. </t>
-  </si>
-  <si>
     <t>Number of policy de-risking instruments for minigrid investments identified and adopted by the national government</t>
   </si>
   <si>
@@ -330,22 +328,14 @@
     <t xml:space="preserve">At least two policy de-risking instruments identified and adopted </t>
   </si>
   <si>
-    <t>Minigrid pilots implemented that demonstrate a delivery model, cost-reduction measure(s) and/or productive use of electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% of the planned minigrid pilots, as identified in the project’s Minigrid Pilot Plan, are commissioned. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It can be classified in any category under Productive Use of Energy </t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacity of private sector minigrid developers and/or operators is enhanced to participate in sector-wide tendering processes led by MoWE and the EEU to develop and/or operate minigrids </t>
-  </si>
-  <si>
-    <t>Zero (no formal training for minigrid developers and operators in Ethiopia, within or outside AMP)</t>
+    <t>Number of beneficiaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It can be classified in any category under Productive Use of Energy 
+100% of the planned minigrid pilots, as identified in the project’s Minigrid Pilot Plan, are commissioned. </t>
+  </si>
+  <si>
+    <t>micro finance institutions are currently providing energy-financing options to households using funds</t>
   </si>
   <si>
     <t>Planned capacity building activities are implemented.
@@ -354,6 +344,143 @@
 - 5 represents a strong capacity to understand relevant issues and apply knowledge and skills to find effective solutions</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of new government- or impact investor-supported financing mechanisms offering concessional finance for renewable minigrids. </t>
+  </si>
+  <si>
+    <t>Zero (through mechanism or facility supported by AMP)</t>
+  </si>
+  <si>
+    <t>At least one new complementary funding instrument is designed by AMP and operational.
+At least one renewable mini-grid project has managed to obtain concessional finance (i.e. sign the relevant agreements) through the designed complementary funding instrument.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A project digital strategy is prepared and implemented by the PMU to contribute to project implementation and local minigrid market development. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project digital strategy is implemented.
+Recommendations for rolling out digital solutions for minigrids at national level have been shared with key national stakeholders. </t>
+  </si>
+  <si>
+    <t>Total：2,042,396 USD
+(1) MOFCOM: 1,000,000
+(2) Co-financing: 1,042,396</t>
+  </si>
+  <si>
+    <t>Number of green technologies introduced at national level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No/only few number of functional large scale institutional biogas and solar plants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 new large scale institutional biogas and solar systems for demonstration </t>
+  </si>
+  <si>
+    <t>No of training course curriculum material developed for system design and optimization
+No of training course for system design and optimization
+No of people trained on design and optimization
+%of positive evaluation of training</t>
+  </si>
+  <si>
+    <t>1 Training course curriculum material
+3-5 hands-on training course for design and optimization
+30 participants trained on system design training 
+80% of positive evaluation of the training</t>
+  </si>
+  <si>
+    <t>No of RE Training curricula added on SSC centre website as E-Learning course</t>
+  </si>
+  <si>
+    <t>At least 1 E-Learning course on SSC Center website
+30 of views and subscription to online courses</t>
+  </si>
+  <si>
+    <t>No of Award Scheme designed
+No of winners awarded</t>
+  </si>
+  <si>
+    <t>1 Award Scheme developed
+At least 30 winners awarded for “best China-Africa cooperation”, “Greenest Universities”, “Energy Efficiency”, “Reduction of GHG”, “Innovative RET uses”, etc.</t>
+  </si>
+  <si>
+    <t>Beneficiaries include, but are not limited to, public institutions, private associations, research organizations, and are not categorized under any of the options.</t>
+  </si>
+  <si>
+    <t>No of Ethiopia participants to business platform in China
+% of stakeholders  satisfied with business match-making platform and trade fair</t>
+  </si>
+  <si>
+    <t>At least 10 stakeholders from Ethiopia (private companies, biogas association, government counterparts) invited to business match-making platform
+80% of participants satisfied with business match-making platform and trade fair</t>
+  </si>
+  <si>
+    <t>It can be placed in any of the categories under Market Development.</t>
+  </si>
+  <si>
+    <t>No of online catalogue of suppliers/appliances developed and regularly updated</t>
+  </si>
+  <si>
+    <t>1 online catalogue of suppliers/appliances developed and regularly updated
+70% of users satisfied with online catalogue service</t>
+  </si>
+  <si>
+    <t>It does not fall into any of the categories</t>
+  </si>
+  <si>
+    <t>Total：73,137,680 USD
+(1) GEF: 4,480,500.00
+(2) Co-financing: 69,045,899</t>
+  </si>
+  <si>
+    <t>The use of over 15 million inefficient cook-stoves and over 15 million kerosene lamps leads to over 35 Mt CO2e annually</t>
+  </si>
+  <si>
+    <t>The total direct incremental GHG emission reductions from solar products will 0.04 Mt of CO2e over their lifetime of 3 years; the additional ICS will avoid 2 Mt of CO2e over their lifetime of 3 years.</t>
+  </si>
+  <si>
+    <t>800,000 households are direct beneficiaries from improved access to affordable RETs.</t>
+  </si>
+  <si>
+    <t>300,000 RET items sold directly at roadshows</t>
+  </si>
+  <si>
+    <t>It can be classified in any category under Productive Use of Energy or the category of Clean Cooking.</t>
+  </si>
+  <si>
+    <t>Number  of appearances of promotions in media.</t>
+  </si>
+  <si>
+    <t>At least 1000 appearances of promotions in media.</t>
+  </si>
+  <si>
+    <t>Total：16,664,577 USD
+(1) GEF: 2,890,826
+(2) Co-financing: 13,773,751</t>
+  </si>
+  <si>
+    <t>A minigrid delivery model to enable minigrid development is endorsed/adopted by the national government through a consultative process involving key stakeholders (e.g. relevant ministries, local authorities, rural populations, private sector, media, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one cooperative minigrid delivery model is identified and endorsed by the government through the work of the multi-stakeholder platform and dialogue. </t>
+  </si>
+  <si>
+    <t>Minigrid pilots implemented that demonstrate a delivery model, cost-reduction measure(s) and/or productive use of electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% of the planned minigrid pilots, as identified in the project’s Minigrid Pilot Plan, are commissioned. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It can be classified in any category under Productive Use of Energy </t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity of private sector minigrid developers and/or operators is enhanced to participate in sector-wide tendering processes led by MoWE and the EEU to develop and/or operate minigrids </t>
+  </si>
+  <si>
+    <t>Zero (no formal training for minigrid developers and operators in Ethiopia, within or outside AMP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capacity of financial institutions is enhanced through training, knowledge sharing, and/or awareness raising events aimed at increasing the financial sector’s capacity to evaluate investments in minigrids. </t>
   </si>
   <si>
@@ -366,33 +493,12 @@
 - 5 represents a strong capacity to understand relevant issues and apply knowledge and skills to find effective solutions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of new government- or impact investor-supported financing mechanisms offering concessional finance for renewable minigrids. </t>
-  </si>
-  <si>
-    <t>Zero (through mechanism or facility supported by AMP)</t>
-  </si>
-  <si>
-    <t>At least one new complementary funding instrument is designed by AMP and operational.
-At least one renewable mini-grid project has managed to obtain concessional finance (i.e. sign the relevant agreements) through the designed complementary funding instrument.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A project digital strategy is prepared and implemented by the PMU to contribute to project implementation and local minigrid market development. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project digital strategy is implemented.
-Recommendations for rolling out digital solutions for minigrids at national level have been shared with key national stakeholders. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Minigrid pilots sharing data on minigrid performance with the regional project and other stakeholders following best practices and guidance received from the AMP Regional Project. </t>
   </si>
   <si>
     <t xml:space="preserve">100% of the planned minigrid pilots, as identified in the project’s Minigrid Pilot Plan, are collecting and sharing data with the AMP Regional Project [at least on a quarterly basis] using the project’s ‘digital &amp; data management platform’. </t>
   </si>
   <si>
-    <t>This is really good, but all outputs should be split onto separate lines.  The indicator and target need to be separated, with the target as quantitative value. 
-Also, for capacity trainings, if there is a estimation for the people indirectly impacted, please provide this in the notes.</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
@@ -406,9 +512,6 @@
   </si>
   <si>
     <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Clean Cooking</t>
   </si>
   <si>
     <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
@@ -531,7 +634,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +677,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -832,7 +941,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -901,6 +1010,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,11 +1034,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,11 +1341,883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE995B7-0280-41E8-966D-05ED34708093}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="66" customHeight="1">
+      <c r="A2" s="7">
+        <v>116770</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+    </row>
+    <row r="3" spans="1:19" ht="93" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" spans="1:19" ht="69.75" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+    </row>
+    <row r="5" spans="1:19" ht="51" customHeight="1">
+      <c r="A5" s="21">
+        <v>93964</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="16">
+        <v>73137680</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>35500000</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:19" ht="83.25" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+    </row>
+    <row r="7" spans="1:19" ht="67.5" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="L7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" ht="69.75" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="L8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:19" ht="66.75" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="4">
+        <v>500</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" ht="93.75" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="34">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+    </row>
+    <row r="11" spans="1:19" ht="72" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4">
+        <v>500</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+    </row>
+    <row r="12" spans="1:19" ht="126" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+    </row>
+    <row r="13" spans="1:19" ht="142.5" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="18">
+        <v>120</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:19" ht="114.75" customHeight="1">
+      <c r="A14" s="7">
+        <v>127444</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>31625</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+    </row>
+    <row r="15" spans="1:19" ht="50.25" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15">
+        <v>0.624</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" ht="85.5" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="4">
+        <v>270</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="29">
+        <f>125/270</f>
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19" ht="50.25" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="4">
+        <v>16836</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+    </row>
+    <row r="18" spans="1:19" ht="66" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="L18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19" ht="78.75" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>31625</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" spans="1:19" ht="166.5" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>14</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+    </row>
+    <row r="21" spans="1:19" ht="137.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+    </row>
+    <row r="22" spans="1:19" ht="68.25" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S22" xr:uid="{62E325B0-0450-47B3-BB46-D75432B5EAA7}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R22" xr:uid="{DD086245-9918-4EB3-B48C-A15FB26B3282}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q22" xr:uid="{83EC6B6E-E055-4F14-9C33-C27A67CDA462}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P22" xr:uid="{8F2B623E-CB15-44EE-B487-F4DAFADE480D}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O22" xr:uid="{ECCB0ACC-142E-4744-B597-A8CDA1A0CF54}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{14FB97B6-0333-4129-89AE-0E8ACEC7EE75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1274,28 +2269,28 @@
         <v>116770</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="93" customHeight="1">
@@ -1304,16 +2299,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I3" s="12"/>
     </row>
@@ -1323,16 +2318,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1342,16 +2337,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="I5" s="12"/>
     </row>
@@ -1361,19 +2356,19 @@
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="69.75" customHeight="1">
@@ -1382,16 +2377,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I7" s="12"/>
     </row>
@@ -1401,19 +2396,19 @@
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75.75" customHeight="1">
@@ -1422,19 +2417,19 @@
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
@@ -1448,22 +2443,22 @@
         <v>37</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="83.25" customHeight="1">
@@ -1472,19 +2467,19 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="67.5" customHeight="1">
@@ -1493,16 +2488,16 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="I12" s="12"/>
     </row>
@@ -1512,16 +2507,16 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I13" s="12"/>
     </row>
@@ -1531,16 +2526,16 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I14" s="12"/>
     </row>
@@ -1550,19 +2545,19 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.5" customHeight="1">
@@ -1571,19 +2566,19 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="72" customHeight="1">
@@ -1611,19 +2606,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="142.5" customHeight="1">
@@ -1635,13 +2630,13 @@
         <v>59</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" s="19"/>
     </row>
@@ -1650,25 +2645,25 @@
         <v>127444</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" s="10"/>
     </row>
@@ -1678,16 +2673,16 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" s="12"/>
     </row>
@@ -1697,19 +2692,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50.25" customHeight="1">
@@ -1718,19 +2713,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="144.75" customHeight="1">
@@ -1739,19 +2734,19 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="66" customHeight="1">
@@ -1760,7 +2755,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>83</v>
@@ -1779,19 +2774,19 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="166.5" customHeight="1">
@@ -1800,16 +2795,16 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I27" s="12"/>
     </row>
@@ -1819,16 +2814,16 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="I28" s="12"/>
     </row>
@@ -1838,16 +2833,16 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I29" s="12"/>
     </row>
@@ -1857,16 +2852,16 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I30" s="12"/>
     </row>
@@ -1876,25 +2871,23 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="A34" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1904,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1917,160 +2910,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>106</v>
+      <c r="A2" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="30"/>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
-        <v>111</v>
+      <c r="A5" s="31" t="s">
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="31"/>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="31"/>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="31"/>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="31"/>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="26" t="s">
-        <v>122</v>
+      <c r="A10" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="33"/>
+      <c r="B13" t="s">
         <v>126</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2105,8 +3098,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2130,6 +3123,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2205,6 +3199,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -2356,5 +3355,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F6DE607-D07F-4772-A958-6196992E53E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FF49F4-ED1A-4E4A-9FF3-1A84BE9AECEB}"/>
 </file>
--- a/01_Input/00_CO Validation/Ethiopia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Ethiopia - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/Energy/CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{13BC68ED-377D-AF46-9517-24CBBB382626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCE3BCB-7BC2-4DA7-AE7B-2F8C6E900738}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{13BC68ED-377D-AF46-9517-24CBBB382626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D783DBF7-4B35-4A5D-989A-7702F534F336}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="184">
   <si>
     <t>Project ID</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>Market Intervention</t>
   </si>
   <si>
     <t>Policy or Regulatory Framework</t>
@@ -135,21 +138,6 @@
   </si>
   <si>
     <t>Some Sources</t>
-  </si>
-  <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t>The supported 1 MW will be installed in hotels as the objective is to increase private sector investment in PV systems.  The ongoing Egypt PV project has already addressed the Hotels in Sharm ahead of the COP27 and we have worked in more than 10 hotels which have invested in more than 3 MWs. Green Sharm Project will further promote the technology in hotels aiming to have all hotels in the city install PV systems. 
-For instance one of the hotels in Sharm  keep expanding the solar power station and aims to reach 70% of total electricity consumption to be from solar energy.  With the improvement in electricity storage technology, the hotel should be able to dis-connect soonest from the grid. 
-Meanwhile, the guests and hotel staff are watching and replicating in their homes.  This is exactly how it went with the market transformation to energy efficient lighting  (LED technology) in Egypt.  I did not mention about the energy efficiency project because it has ended in 2018 but it has induced a reduction of 10-15% to total electricity consumption in the country.   
-Based on the above, it is difficult to estimated the number of beneficiaries from the energy transition actions and I would appreciate your suggestions in this respect.  As mentioned earlier, the moonshot indicators are not tuned to capture achievements in energy transition.  I will be glad to contribute to a brainstorming session on if you like to discuss developing indicators to describe energy transition</t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
   </si>
   <si>
     <t>Capacity Building Training</t>
@@ -179,7 +167,7 @@
     <t>PIMS+ https://co.pims.undp.org/project/view?id=5200</t>
   </si>
   <si>
-    <t>Energy Saved (MJ)</t>
+    <t>Energy Efficiency Services</t>
   </si>
   <si>
     <t>Lifetime energy saved</t>
@@ -193,6 +181,9 @@
 (2) Co-financing: 69,045,899</t>
   </si>
   <si>
+    <t>VF</t>
+  </si>
+  <si>
     <t>GHG Emissions Reduction</t>
   </si>
   <si>
@@ -224,13 +215,13 @@
     <t>New regulations for enforcement of standards in place.</t>
   </si>
   <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
     <t>Legal Framework</t>
   </si>
   <si>
     <t>National</t>
-  </si>
-  <si>
-    <t>Tier 1</t>
   </si>
   <si>
     <t>Number of participants benefiting from trainings (gender-disaggregated)</t>
@@ -265,12 +256,6 @@
 500 RET enterprises applying for business incubation services.</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Market Intervention</t>
-  </si>
-  <si>
     <t>Volume of investment mobilised by FSPs participating in the project.</t>
   </si>
   <si>
@@ -278,6 +263,9 @@
   </si>
   <si>
     <t>With support from financial mechanism and awareness campaigns, investment and deployment of at least 200,000 additional small-scale solar energy technologies and of an additional 600,000 improved cook-stoves, worth USD 15 million, have been mobilised.</t>
+  </si>
+  <si>
+    <t>Business Model</t>
   </si>
   <si>
     <t>Number of enterprises that launch micro-businesses to sell either small-scale solar technologies or improved cook-stoves (or both)</t>
@@ -317,6 +305,9 @@
 (2) Co-financing: 13,773,751</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
     <t>Solar</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
   </si>
   <si>
     <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Tier 2</t>
   </si>
   <si>
     <t>Number of beneficiaries</t>
@@ -413,7 +401,19 @@
     <t xml:space="preserve">Comments </t>
   </si>
   <si>
+    <t>The supported 1 MW will be installed in hotels as the objective is to increase private sector investment in PV systems.  The ongoing Egypt PV project has already addressed the Hotels in Sharm ahead of the COP27 and we have worked in more than 10 hotels which have invested in more than 3 MWs. Green Sharm Project will further promote the technology in hotels aiming to have all hotels in the city install PV systems. 
+For instance one of the hotels in Sharm  keep expanding the solar power station and aims to reach 70% of total electricity consumption to be from solar energy.  With the improvement in electricity storage technology, the hotel should be able to dis-connect soonest from the grid. 
+Meanwhile, the guests and hotel staff are watching and replicating in their homes.  This is exactly how it went with the market transformation to energy efficient lighting  (LED technology) in Egypt.  I did not mention about the energy efficiency project because it has ended in 2018 but it has induced a reduction of 10-15% to total electricity consumption in the country.   
+Based on the above, it is difficult to estimated the number of beneficiaries from the energy transition actions and I would appreciate your suggestions in this respect.  As mentioned earlier, the moonshot indicators are not tuned to capture achievements in energy transition.  I will be glad to contribute to a brainstorming session on if you like to discuss developing indicators to describe energy transition</t>
+  </si>
+  <si>
     <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Energy Saved (MJ)</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
   <si>
     <t>Total：2,042,396 USD
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
-  </si>
-  <si>
-    <t>Energy Efficiency Services</t>
   </si>
   <si>
     <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
@@ -1434,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041B69F1-5289-4A21-8AB2-CC34026165BF}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N2:N5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1456,11 +1453,12 @@
     <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:22">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1521,28 +1519,31 @@
       <c r="T1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="66" customHeight="1">
+      <c r="V1" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="66" customHeight="1">
       <c r="A2" s="1">
         <v>116770</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1551,56 +1552,40 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="30"/>
-      <c r="U2" s="39"/>
-      <c r="X2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-    </row>
-    <row r="3" spans="1:32" ht="93" customHeight="1">
+      <c r="U2" s="30"/>
+      <c r="V2" s="39"/>
+    </row>
+    <row r="3" spans="1:22" ht="93" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -1609,16 +1594,16 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="22"/>
       <c r="L3" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
@@ -1626,33 +1611,19 @@
       <c r="R3" s="30"/>
       <c r="S3" s="39"/>
       <c r="T3" s="30"/>
-      <c r="U3" s="39"/>
-      <c r="X3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-    </row>
-    <row r="4" spans="1:32" ht="69.75" customHeight="1">
+      <c r="U3" s="30"/>
+      <c r="V3" s="39"/>
+    </row>
+    <row r="4" spans="1:22" ht="69.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1661,16 +1632,16 @@
         <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
@@ -1678,41 +1649,27 @@
       <c r="R4" s="30"/>
       <c r="S4" s="39"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="39"/>
-      <c r="X4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-    </row>
-    <row r="5" spans="1:32" ht="51" customHeight="1">
+      <c r="U4" s="30"/>
+      <c r="V4" s="39"/>
+    </row>
+    <row r="5" spans="1:22" ht="51" customHeight="1">
       <c r="A5" s="1">
-        <v>93964</v>
+        <v>5200</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>73137680</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="24">
         <v>0</v>
@@ -1721,18 +1678,18 @@
         <v>35500000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M5" s="30"/>
       <c r="N5" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
@@ -1740,49 +1697,35 @@
       <c r="R5" s="30"/>
       <c r="S5" s="39"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="39"/>
-      <c r="X5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-    </row>
-    <row r="6" spans="1:32" ht="83.25" customHeight="1">
+      <c r="U5" s="30"/>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="1:22" ht="83.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>2.04</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -1790,49 +1733,35 @@
       <c r="R6" s="30"/>
       <c r="S6" s="39"/>
       <c r="T6" s="30"/>
-      <c r="U6" s="39"/>
-      <c r="X6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-    </row>
-    <row r="7" spans="1:32" ht="67.5" customHeight="1">
+      <c r="U6" s="30"/>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="1:22" ht="67.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -1840,111 +1769,81 @@
       <c r="R7" s="30"/>
       <c r="S7" s="39"/>
       <c r="T7" s="30"/>
-      <c r="U7" s="39"/>
-      <c r="X7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-    </row>
-    <row r="8" spans="1:32" ht="69.75" customHeight="1">
+      <c r="U7" s="30"/>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="1:22" ht="69.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="39"/>
-      <c r="T8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="39"/>
-      <c r="X8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-    </row>
-    <row r="9" spans="1:32" ht="66.75" customHeight="1">
+      <c r="V8" s="39"/>
+    </row>
+    <row r="9" spans="1:22" ht="66.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1">
         <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
@@ -1952,51 +1851,37 @@
       <c r="R9" s="30"/>
       <c r="S9" s="39"/>
       <c r="T9" s="30"/>
-      <c r="U9" s="39"/>
-      <c r="X9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-    </row>
-    <row r="10" spans="1:32" ht="93.75" customHeight="1">
+      <c r="U9" s="30"/>
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" spans="1:22" ht="93.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="1">
         <v>300000</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M10" s="30"/>
       <c r="N10" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
@@ -2004,51 +1889,37 @@
       <c r="R10" s="30"/>
       <c r="S10" s="39"/>
       <c r="T10" s="30"/>
-      <c r="U10" s="39"/>
-      <c r="X10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-    </row>
-    <row r="11" spans="1:32" ht="72" customHeight="1">
+      <c r="U10" s="30"/>
+      <c r="V10" s="39"/>
+    </row>
+    <row r="11" spans="1:22" ht="72" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="1">
         <v>500</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M11" s="30"/>
       <c r="N11" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
@@ -2056,105 +1927,77 @@
       <c r="R11" s="30"/>
       <c r="S11" s="39"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="39"/>
-      <c r="X11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-    </row>
-    <row r="12" spans="1:32" ht="126" customHeight="1">
+      <c r="U11" s="30"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" spans="1:22" ht="126" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1">
         <v>15000000</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="39"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="39"/>
-      <c r="X12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-    </row>
-    <row r="13" spans="1:32" ht="142.5" customHeight="1">
+      <c r="T12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="30"/>
+      <c r="V12" s="39"/>
+    </row>
+    <row r="13" spans="1:22" ht="142.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1">
         <v>120</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M13" s="30"/>
       <c r="N13" s="38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
@@ -2162,41 +2005,27 @@
       <c r="R13" s="30"/>
       <c r="S13" s="39"/>
       <c r="T13" s="30"/>
-      <c r="U13" s="39"/>
-      <c r="X13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-    </row>
-    <row r="14" spans="1:32" ht="114.75" customHeight="1">
+      <c r="U13" s="30"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:22" ht="114.75" customHeight="1">
       <c r="A14" s="1">
         <v>127444</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -2205,72 +2034,58 @@
         <v>31625</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M14" s="30"/>
       <c r="N14" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
       <c r="R14" s="30"/>
       <c r="S14" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T14" s="30"/>
-      <c r="U14" s="39"/>
-      <c r="X14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-    </row>
-    <row r="15" spans="1:32" ht="50.25" customHeight="1">
+      <c r="U14" s="30"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" spans="1:22" ht="50.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="28">
         <v>0.624</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M15" s="30"/>
       <c r="N15" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
@@ -2278,42 +2093,28 @@
       <c r="R15" s="30"/>
       <c r="S15" s="39"/>
       <c r="T15" s="30"/>
-      <c r="U15" s="39"/>
-      <c r="X15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-    </row>
-    <row r="16" spans="1:32" ht="85.5" customHeight="1">
+      <c r="U15" s="30"/>
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:22" ht="85.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1">
         <v>270</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="29">
@@ -2321,11 +2122,11 @@
         <v>0.46296296296296297</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M16" s="30"/>
       <c r="N16" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
@@ -2333,51 +2134,37 @@
       <c r="R16" s="30"/>
       <c r="S16" s="39"/>
       <c r="T16" s="30"/>
-      <c r="U16" s="39"/>
-      <c r="X16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-    </row>
-    <row r="17" spans="1:32" ht="50.25" customHeight="1">
+      <c r="U16" s="30"/>
+      <c r="V16" s="39"/>
+    </row>
+    <row r="17" spans="1:22" ht="50.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1">
         <v>16836</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
@@ -2385,93 +2172,63 @@
       <c r="R17" s="30"/>
       <c r="S17" s="39"/>
       <c r="T17" s="30"/>
-      <c r="U17" s="39"/>
-      <c r="X17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-    </row>
-    <row r="18" spans="1:32" ht="66" customHeight="1">
+      <c r="U17" s="30"/>
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:22" ht="66" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M18" s="30"/>
       <c r="N18" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="P18" s="30"/>
       <c r="Q18" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R18" s="30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="S18" s="39"/>
-      <c r="T18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="39"/>
-      <c r="X18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC18" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-    </row>
-    <row r="19" spans="1:32" ht="78.75" customHeight="1">
+      <c r="T18" s="30"/>
+      <c r="U18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V18" s="39"/>
+    </row>
+    <row r="19" spans="1:22" ht="78.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2480,18 +2237,18 @@
         <v>31625</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="29">
         <v>0.5</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M19" s="30"/>
       <c r="N19" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
@@ -2499,33 +2256,19 @@
       <c r="R19" s="30"/>
       <c r="S19" s="39"/>
       <c r="T19" s="30"/>
-      <c r="U19" s="39"/>
-      <c r="X19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-    </row>
-    <row r="20" spans="1:32" ht="166.5" customHeight="1">
+      <c r="U19" s="30"/>
+      <c r="V19" s="39"/>
+    </row>
+    <row r="20" spans="1:22" ht="166.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -2534,16 +2277,16 @@
         <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
@@ -2551,169 +2294,112 @@
       <c r="R20" s="30"/>
       <c r="S20" s="39"/>
       <c r="T20" s="30"/>
-      <c r="U20" s="39"/>
-      <c r="X20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-    </row>
-    <row r="21" spans="1:32" ht="137.25">
+      <c r="U20" s="30"/>
+      <c r="V20" s="39"/>
+    </row>
+    <row r="21" spans="1:22" ht="137.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M21" s="30"/>
       <c r="N21" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="P21" s="30"/>
       <c r="Q21" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R21" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S21" s="39"/>
-      <c r="T21" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="X21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-    </row>
-    <row r="22" spans="1:32" ht="68.25" customHeight="1">
+      <c r="T21" s="30"/>
+      <c r="U21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="68.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="37" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M22" s="30"/>
       <c r="N22" s="38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O22" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P22" s="30"/>
       <c r="Q22" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S22" s="39"/>
-      <c r="T22" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22" s="39"/>
-      <c r="X22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC22" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="T22" s="30"/>
+      <c r="U22" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="39"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="21"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA22 N2:N22" xr:uid="{C12229AB-1F1B-4D15-B867-00F0EE5584FB}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N22" xr:uid="{C12229AB-1F1B-4D15-B867-00F0EE5584FB}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB22" xr:uid="{A4088E0A-FB04-45EC-B83E-7A8781073BEB}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD22 P2:P22" xr:uid="{B0E49EE3-E3C2-4AD2-AE80-EC954E5B29A2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P22" xr:uid="{B0E49EE3-E3C2-4AD2-AE80-EC954E5B29A2}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE22 Q2:Q22" xr:uid="{ADAF9190-E3D1-47F1-B40C-3D3BA15F0940}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q22" xr:uid="{ADAF9190-E3D1-47F1-B40C-3D3BA15F0940}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF22" xr:uid="{C7B33A57-1C64-4669-AB5F-0AA36684E543}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC22" xr:uid="{3EF40C87-0501-4481-BCE4-04B75407EADF}">
-      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O22" xr:uid="{44946E23-C81E-4262-A400-8EF6ADAAEB8D}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
@@ -2724,7 +2410,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M22" xr:uid="{D144720E-6EE5-4C5D-97A3-B1A1CCDBCACC}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T22" xr:uid="{A7971B00-FD90-421F-BBAB-E5931A5159F6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U22" xr:uid="{A7971B00-FD90-421F-BBAB-E5931A5159F6}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S22" xr:uid="{9224EDFF-28F0-4B20-97AE-CF0F31C5BC39}">
@@ -2732,6 +2418,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R22" xr:uid="{D998DAE1-A213-406D-8594-5480A804E4B7}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T22" xr:uid="{6E499426-379E-4469-A358-0F2C2925FD4C}">
+      <formula1>"Incentives and Support, Derisking Financial Model, Business Model"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2808,10 +2497,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N1" s="26" t="s">
         <v>12</v>
@@ -2837,19 +2526,19 @@
         <v>116770</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -2858,24 +2547,24 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="N2" s="23"/>
       <c r="O2" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="23"/>
       <c r="R2" s="23"/>
@@ -2887,10 +2576,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2899,20 +2588,20 @@
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
@@ -2924,10 +2613,10 @@
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -2936,20 +2625,20 @@
         <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
@@ -2960,19 +2649,19 @@
         <v>93964</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1">
         <v>73137680</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2981,22 +2670,22 @@
         <v>35500000</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5" s="28"/>
       <c r="L5" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
@@ -3008,30 +2697,30 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
         <v>2.04</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
@@ -3043,30 +2732,30 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
@@ -3078,30 +2767,30 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
@@ -3113,32 +2802,32 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1">
         <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
@@ -3150,32 +2839,32 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="24">
         <v>300000</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
@@ -3187,34 +2876,34 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="1">
         <v>500</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
@@ -3227,27 +2916,27 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
@@ -3259,32 +2948,32 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1">
         <v>120</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
@@ -3295,19 +2984,19 @@
         <v>127444</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -3316,22 +3005,22 @@
         <v>31625</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
@@ -3343,32 +3032,32 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="28">
         <v>0.624</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
@@ -3380,19 +3069,19 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1">
         <v>270</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="29">
@@ -3400,15 +3089,15 @@
         <v>0.46296296296296297</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
@@ -3420,32 +3109,32 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1">
         <v>16836</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -3457,30 +3146,30 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
@@ -3492,10 +3181,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -3504,22 +3193,22 @@
         <v>31625</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="29">
         <v>0.5</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
@@ -3531,10 +3220,10 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -3543,20 +3232,20 @@
         <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
@@ -3568,30 +3257,30 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
@@ -3603,30 +3292,30 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
@@ -3717,16 +3406,16 @@
         <v>116770</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>114</v>
@@ -3747,16 +3436,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -3766,13 +3455,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>118</v>
@@ -3785,13 +3474,13 @@
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>119</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>120</v>
@@ -3804,13 +3493,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>122</v>
@@ -3825,16 +3514,16 @@
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -3844,13 +3533,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>125</v>
@@ -3865,13 +3554,13 @@
       <c r="C9" s="17"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>128</v>
@@ -3885,25 +3574,25 @@
         <v>93964</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>130</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>129</v>
@@ -3915,10 +3604,10 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>131</v>
@@ -3936,13 +3625,13 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>133</v>
@@ -3955,16 +3644,16 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -3974,16 +3663,16 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -3993,13 +3682,13 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>134</v>
@@ -4014,13 +3703,13 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>137</v>
@@ -4035,16 +3724,16 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="I17" s="9"/>
     </row>
@@ -4054,16 +3743,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>129</v>
@@ -4075,16 +3764,16 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="16"/>
     </row>
@@ -4093,25 +3782,25 @@
         <v>127444</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -4121,16 +3810,16 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -4140,16 +3829,16 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>129</v>
@@ -4161,16 +3850,16 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>129</v>
@@ -4182,13 +3871,13 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>140</v>
@@ -4203,16 +3892,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I25" s="9"/>
     </row>
@@ -4222,13 +3911,13 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>142</v>
@@ -4252,7 +3941,7 @@
         <v>146</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I27" s="9"/>
     </row>
@@ -4262,7 +3951,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>147</v>
@@ -4281,16 +3970,16 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I29" s="9"/>
     </row>
@@ -4300,16 +3989,16 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I30" s="9"/>
     </row>
@@ -4319,13 +4008,13 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>150</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>151</v>
@@ -4368,7 +4057,7 @@
     </row>
     <row r="2" spans="1:2" ht="45.75">
       <c r="A2" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>152</v>
@@ -4376,7 +4065,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>153</v>
@@ -4384,7 +4073,7 @@
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>154</v>
@@ -4440,58 +4129,58 @@
     </row>
     <row r="11" spans="1:2" ht="30.75">
       <c r="A11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75">
       <c r="A12" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75">
       <c r="A13" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>171</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75">
       <c r="A15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>175</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75">
       <c r="A16" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75">
       <c r="A17" s="40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75">
@@ -4499,39 +4188,39 @@
         <v>144</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="76.5">
       <c r="A19" s="40" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75">
       <c r="A20" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>181</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45.75">
       <c r="A21" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75">
       <c r="A22" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4540,8 +4229,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -4566,6 +4266,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4645,6 +4346,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4788,7 +4494,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4797,25 +4503,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FF49F4-ED1A-4E4A-9FF3-1A84BE9AECEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{595127E4-704E-4A86-883A-3A7A6BA0F0B8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB66BC13-1528-4B62-8772-F6E82983ED55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADA2B43C-6275-47C9-8390-DCA22D3366B6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{595127E4-704E-4A86-883A-3A7A6BA0F0B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB66BC13-1528-4B62-8772-F6E82983ED55}"/>
 </file>